--- a/03.Clasificacion/Other_cycles/Other_cycles_p/P_NEDC ECE.xlsx
+++ b/03.Clasificacion/Other_cycles/Other_cycles_p/P_NEDC ECE.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11028.34211</v>
+        <v>6954.72234</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1180</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.6173</v>
+        <v>62.5925</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.80865</v>
+        <v>91.29625</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.28774</v>
+        <v>0.19196</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.12847</v>
+        <v>0.90278</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>205</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>484</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.11319</v>
+        <v>0.09417</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.23506</v>
+        <v>-0.20588</v>
       </c>
     </row>
     <row r="14">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.57627</v>
+        <v>10.27569</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.50847</v>
+        <v>89.97494</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.44068</v>
+        <v>51.62907</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.0678</v>
+        <v>38.34586</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.55634</v>
+        <v>14.46762</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00912</v>
+        <v>0.00208</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>305.58343</v>
+        <v>79.47049</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02771</v>
+        <v>0.01143</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>291.0619</v>
+        <v>77.94221</v>
       </c>
     </row>
   </sheetData>
